--- a/biology/Médecine/Allergie_aux_aminosides/Allergie_aux_aminosides.xlsx
+++ b/biology/Médecine/Allergie_aux_aminosides/Allergie_aux_aminosides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une allergie aux aminosides, antibiotiques du groupe des aminoglycosides (comme la streptomycine et la néomycine), peut être reconnue comme maladie professionnelle en France, sous certaines conditions.
 Cet article en décrit les critères administratifs et relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical.
@@ -514,13 +526,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Données professionnelles
-La streptomycine est un antibiotique antibactérien cytostatique et cytotoxique. Il appartient à la classe des aminosides (ou aminoglycosides). C'est d'ailleurs le premier membre de cette classe à avoir été découvert (en 1943). Il fut isolé à partir d'une souche d'actinobactérie Streptomyces griseus.
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Allergie_aux_aminosides</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allergie_aux_aminosides</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La streptomycine est un antibiotique antibactérien cytostatique et cytotoxique. Il appartient à la classe des aminosides (ou aminoglycosides). C'est d'ailleurs le premier membre de cette classe à avoir été découvert (en 1943). Il fut isolé à partir d'une souche d'actinobactérie Streptomyces griseus.
 La découverte fut l'œuvre de l'étudiant Albert Schatz mais le mérite rejaillit sur son professeur, Selman Waksman, qui obtint le prix Nobel de physiologie ou médecine en 1952.
 Cet antibiotique agit notamment sur Mycobacterium tuberculosis, et fut d'ailleurs le premier antibiotique utilisé contre la tuberculose.Comme tout médicament, il peut montrer des effets secondaires indésirables (notamment des troubles rénaux et surtout auditifs). Pour cette raison cet antibiotique est actuellement très peu utilisé. Dans le traitement de la tuberculose il a été supplanté par l'isoniazide et la rifampicine.
-Données médicales
-Chez les professionnels exposés, essentiellement les professionnels de santé, la manipulation du produit (surtout les préparations injectables) peut provoquer des lésions cutanées éczématiformes par contact avec la peau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allergie_aux_aminosides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allergie_aux_aminosides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les professionnels exposés, essentiellement les professionnels de santé, la manipulation du produit (surtout les préparations injectables) peut provoquer des lésions cutanées éczématiformes par contact avec la peau.
 </t>
         </is>
       </c>
